--- a/public/Data Layanan.xlsx
+++ b/public/Data Layanan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yudapramana/Sites/ptsp.kemenagpessel/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C09A0A7-0E4E-3C40-86A1-808F2BB086F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CBA205-CEA0-BD46-9DB2-E25D641F2E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{B64A1DCE-EE3A-194B-B1D2-B270E2BBB9D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="173">
   <si>
     <t>No</t>
   </si>
@@ -269,9 +269,6 @@
     <t>Seksi Pendidikan Diniyah dan Pondok Pesantren</t>
   </si>
   <si>
-    <t>Izin Operasional MDTA/TPQ/Rumah Tahfiz</t>
-  </si>
-  <si>
     <t>Laporan Bulanan Pondok Pesantren</t>
   </si>
   <si>
@@ -281,18 +278,9 @@
     <t>Tanda Tangan</t>
   </si>
   <si>
-    <t>Pengesahan SK Pembagian Tugas Pontren</t>
-  </si>
-  <si>
-    <t>Surat Keterangan Pengganti Ijazah TPQ/MTDTA Karena Kesalahan Penulisan</t>
-  </si>
-  <si>
     <t>Surat Rekomendasi Pendirian Pondok Pesantren</t>
   </si>
   <si>
-    <t>Tes Kelayakan Khatam Al-Quran Santri MDTA, TPQ TKQ dan Pondok Tahfizh</t>
-  </si>
-  <si>
     <t>Konsultasi Haji</t>
   </si>
   <si>
@@ -546,6 +534,27 @@
   </si>
   <si>
     <t>Usulan TPG dan Tunjangan Kinerja</t>
+  </si>
+  <si>
+    <t>Surat Rekomendasi dan Verifikasi Pendirian LPT (TPQ / Rumah Tahfiz)</t>
+  </si>
+  <si>
+    <t>Surat Rekomendasi Izin Penelitian PD Pontren</t>
+  </si>
+  <si>
+    <t>Usulan Izin Operasional PKPDS Wustho</t>
+  </si>
+  <si>
+    <t>Izin Operasional Penyelenggaraan MDTA</t>
+  </si>
+  <si>
+    <t>Izin Operasional Penyelenggaraan LPQ</t>
+  </si>
+  <si>
+    <t>Izin Operasional Penyelenggaraan Pondok Pesanren</t>
+  </si>
+  <si>
+    <t>Rekomendasi Layanan LPQ, MDT, dan Pondok Pesantren</t>
   </si>
 </sst>
 </file>
@@ -921,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE692555-352E-BC45-845A-68614F977634}">
-  <dimension ref="A2:G111"/>
+  <dimension ref="A2:G114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -988,7 +997,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -1011,7 +1020,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
@@ -1057,7 +1066,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
@@ -1103,7 +1112,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>5</v>
@@ -1287,7 +1296,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>5</v>
@@ -1333,7 +1342,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>5</v>
@@ -1356,7 +1365,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>5</v>
@@ -1379,7 +1388,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>5</v>
@@ -1402,7 +1411,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>5</v>
@@ -1425,7 +1434,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>5</v>
@@ -1448,7 +1457,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>5</v>
@@ -1471,7 +1480,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>5</v>
@@ -1494,7 +1503,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>5</v>
@@ -1517,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>5</v>
@@ -1540,7 +1549,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>5</v>
@@ -1675,7 +1684,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>34</v>
+        <v>34.651612903225796</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>53</v>
@@ -1698,10 +1707,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>35</v>
+        <v>35.732661290322604</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>43</v>
@@ -1721,7 +1730,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>36</v>
+        <v>36.813709677419297</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>57</v>
@@ -1744,7 +1753,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>37</v>
+        <v>37.894758064516097</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>59</v>
@@ -1767,7 +1776,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>38</v>
+        <v>38.975806451612897</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>60</v>
@@ -1790,7 +1799,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>39</v>
+        <v>40.056854838709697</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>62</v>
@@ -1813,7 +1822,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>40</v>
+        <v>41.137903225806397</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>63</v>
@@ -1836,7 +1845,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>41</v>
+        <v>42.218951612903197</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>64</v>
@@ -1859,7 +1868,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>42</v>
+        <v>43.3</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>66</v>
@@ -1882,10 +1891,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>43</v>
+        <v>44.381048387096797</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>43</v>
@@ -1905,10 +1914,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>44</v>
+        <v>45.462096774193498</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>43</v>
@@ -1928,10 +1937,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>45</v>
+        <v>46.543145161290298</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>43</v>
@@ -1951,10 +1960,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>46</v>
+        <v>47.624193548387098</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>43</v>
@@ -1974,7 +1983,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>47</v>
+        <v>48.705241935483897</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>69</v>
@@ -1997,7 +2006,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>48</v>
+        <v>49.786290322580598</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>68</v>
@@ -2020,10 +2029,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>49</v>
+        <v>50.867338709677398</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>70</v>
@@ -2043,7 +2052,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>50</v>
+        <v>51.948387096774198</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>72</v>
@@ -2066,7 +2075,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>51</v>
+        <v>53.029435483870898</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>73</v>
@@ -2089,10 +2098,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>52</v>
+        <v>54.110483870967698</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>70</v>
@@ -2112,7 +2121,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>53</v>
+        <v>55.191532258064498</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>75</v>
@@ -2135,7 +2144,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>54</v>
+        <v>56.272580645161298</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>77</v>
@@ -2158,19 +2167,19 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>55</v>
+        <v>57.353629032257999</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F55" s="4">
         <v>1</v>
@@ -2181,19 +2190,19 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>56</v>
+        <v>58.434677419354799</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="F56" s="4">
         <v>1</v>
@@ -2204,22 +2213,22 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>57</v>
+        <v>59.515725806451599</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="F57" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G57" s="4">
         <v>0</v>
@@ -2227,19 +2236,19 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <v>58</v>
+        <v>60.596774193548399</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F58" s="4">
         <v>1</v>
@@ -2250,19 +2259,19 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>59</v>
+        <v>61.677822580645099</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>82</v>
+        <v>167</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F59" s="4">
         <v>1</v>
@@ -2273,22 +2282,22 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>60</v>
+        <v>62.758870967741899</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>83</v>
+        <v>168</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F60" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G60" s="4">
         <v>0</v>
@@ -2296,19 +2305,19 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>61</v>
+        <v>63.839919354838699</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>84</v>
+        <v>169</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F61" s="4">
         <v>1</v>
@@ -2319,19 +2328,19 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>62</v>
+        <v>64.920967741935499</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="F62" s="4">
         <v>1</v>
@@ -2342,19 +2351,19 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
-        <v>63</v>
+        <v>66.002016129032199</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="F63" s="4">
         <v>1</v>
@@ -2365,19 +2374,19 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
-        <v>64</v>
+        <v>67.083064516128999</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F64" s="4">
         <v>1</v>
@@ -2388,19 +2397,19 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
-        <v>65</v>
+        <v>68.164112903225799</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="F65" s="4">
         <v>1</v>
@@ -2411,22 +2420,22 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>66</v>
+        <v>69.245161290322599</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="F66" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G66" s="4">
         <v>0</v>
@@ -2434,22 +2443,22 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>67</v>
+        <v>70.3262096774193</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F67" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G67" s="4">
         <v>0</v>
@@ -2457,22 +2466,22 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>68</v>
+        <v>71.4072580645161</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F68" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G68" s="4">
         <v>0</v>
@@ -2480,13 +2489,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>69</v>
+        <v>72.4883064516129</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>31</v>
@@ -2503,19 +2512,19 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>70</v>
+        <v>73.5693548387097</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="F70" s="4">
         <v>3</v>
@@ -2526,22 +2535,22 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>71</v>
+        <v>74.6504032258064</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="F71" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G71" s="4">
         <v>0</v>
@@ -2549,22 +2558,22 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>72</v>
+        <v>75.7314516129032</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="F72" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G72" s="4">
         <v>0</v>
@@ -2572,22 +2581,22 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <v>73</v>
+        <v>76.8125</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="F73" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G73" s="4">
         <v>0</v>
@@ -2595,19 +2604,19 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
-        <v>74</v>
+        <v>77.8935483870967</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="F74" s="4">
         <v>1</v>
@@ -2618,19 +2627,19 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
-        <v>75</v>
+        <v>78.9745967741935</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F75" s="4">
         <v>1</v>
@@ -2641,19 +2650,19 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
-        <v>76</v>
+        <v>80.0556451612903</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F76" s="4">
         <v>1</v>
@@ -2664,19 +2673,19 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
-        <v>77</v>
+        <v>81.1366935483871</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="F77" s="4">
         <v>1</v>
@@ -2687,22 +2696,22 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
-        <v>78</v>
+        <v>82.217741935483801</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="F78" s="4">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G78" s="4">
         <v>0</v>
@@ -2710,22 +2719,22 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
-        <v>79</v>
+        <v>83.298790322580601</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="F79" s="4">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G79" s="4">
         <v>0</v>
@@ -2733,16 +2742,16 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
-        <v>80</v>
+        <v>84.379838709677401</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>41</v>
@@ -2756,22 +2765,22 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
-        <v>81</v>
+        <v>85.460887096774201</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="F81" s="4">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G81" s="4">
         <v>0</v>
@@ -2779,22 +2788,22 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
+        <v>86.541935483871001</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="D82" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="F82" s="4">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="G82" s="4">
         <v>0</v>
@@ -2802,19 +2811,19 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
-        <v>83</v>
+        <v>87.622983870967701</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F83" s="4">
         <v>1</v>
@@ -2825,19 +2834,19 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
-        <v>84</v>
+        <v>88.704032258064501</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="F84" s="4">
         <v>1</v>
@@ -2848,22 +2857,22 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
-        <v>85</v>
+        <v>89.785080645161301</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="F85" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G85" s="4">
         <v>0</v>
@@ -2871,16 +2880,16 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
-        <v>86</v>
+        <v>90.866129032258002</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>51</v>
@@ -2894,19 +2903,19 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
-        <v>87</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>116</v>
+        <v>91.947177419354801</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>51</v>
+        <v>82</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F87" s="4">
         <v>1</v>
@@ -2917,19 +2926,19 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
-        <v>88</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>117</v>
+        <v>93.028225806451601</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>118</v>
+        <v>82</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F88" s="4">
         <v>1</v>
@@ -2940,19 +2949,19 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
-        <v>89</v>
+        <v>94.109274193548401</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="F89" s="4">
         <v>1</v>
@@ -2963,19 +2972,19 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
-        <v>90</v>
+        <v>95.190322580645102</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="F90" s="4">
         <v>1</v>
@@ -2986,19 +2995,19 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
-        <v>91</v>
+        <v>96.271370967741902</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>122</v>
+        <v>6</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="F91" s="4">
         <v>1</v>
@@ -3009,19 +3018,19 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
-        <v>92</v>
+        <v>97.352419354838702</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="F92" s="4">
         <v>1</v>
@@ -3032,22 +3041,22 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
-        <v>93</v>
+        <v>98.433467741935502</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F93" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G93" s="4">
         <v>0</v>
@@ -3055,19 +3064,19 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
-        <v>94</v>
+        <v>99.514516129032202</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F94" s="4">
         <v>1</v>
@@ -3078,22 +3087,22 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
-        <v>95</v>
+        <v>100.595564516129</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F95" s="4">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G95" s="4">
         <v>0</v>
@@ -3101,22 +3110,22 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
-        <v>96</v>
+        <v>101.676612903226</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="F96" s="4">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G96" s="4">
         <v>0</v>
@@ -3124,19 +3133,19 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
-        <v>97</v>
+        <v>102.757661290323</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="F97" s="4">
         <v>1</v>
@@ -3147,22 +3156,22 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
-        <v>98</v>
+        <v>103.83870967742</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F98" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G98" s="4">
         <v>0</v>
@@ -3170,19 +3179,19 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
-        <v>99</v>
+        <v>104.919758064516</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="F99" s="4">
         <v>1</v>
@@ -3193,22 +3202,22 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
-        <v>100</v>
+        <v>106.000806451613</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="F100" s="4">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G100" s="4">
         <v>0</v>
@@ -3216,22 +3225,22 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
-        <v>101</v>
+        <v>107.08185483871</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="F101" s="4">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G101" s="4">
         <v>0</v>
@@ -3239,19 +3248,19 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
-        <v>102</v>
+        <v>108.162903225807</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="F102" s="4">
         <v>1</v>
@@ -3260,21 +3269,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
-        <v>103</v>
+        <v>109.243951612903</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F103" s="4">
         <v>1</v>
@@ -3285,19 +3294,19 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
-        <v>104</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>135</v>
+        <v>110.325</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>41</v>
+        <v>107</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="F104" s="4">
         <v>1</v>
@@ -3308,19 +3317,19 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
-        <v>105</v>
+        <v>111.406048387097</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="F105" s="4">
         <v>1</v>
@@ -3331,19 +3340,19 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
-        <v>106</v>
+        <v>112.487096774194</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>111</v>
+        <v>133</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="F106" s="4">
         <v>1</v>
@@ -3354,19 +3363,19 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
+        <v>113.56814516129</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C107" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B107" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>111</v>
-      </c>
       <c r="D107" s="6" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="F107" s="4">
         <v>1</v>
@@ -3377,19 +3386,19 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
-        <v>108</v>
+        <v>114.649193548387</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="F108" s="4">
         <v>1</v>
@@ -3400,19 +3409,19 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
-        <v>109</v>
+        <v>115.730241935484</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="F109" s="4">
         <v>1</v>
@@ -3423,19 +3432,19 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
-        <v>110</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E110" s="6" t="s">
-        <v>112</v>
+        <v>116.811290322581</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="F110" s="4">
         <v>1</v>
@@ -3446,24 +3455,93 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
-        <v>111</v>
+        <v>117.892338709678</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
       </c>
       <c r="G111" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
+        <v>118.973387096774</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F112" s="4">
+        <v>1</v>
+      </c>
+      <c r="G112" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
+        <v>120.054435483871</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F113" s="4">
+        <v>1</v>
+      </c>
+      <c r="G113" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
+        <v>121.135483870968</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F114" s="4">
+        <v>1</v>
+      </c>
+      <c r="G114" s="4">
         <v>0</v>
       </c>
     </row>

--- a/public/Data Layanan.xlsx
+++ b/public/Data Layanan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yudapramana/Sites/ptsp.kemenagpessel/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CBA205-CEA0-BD46-9DB2-E25D641F2E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4932D56-292F-944A-9925-33BD965E14B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{B64A1DCE-EE3A-194B-B1D2-B270E2BBB9D0}"/>
   </bookViews>
@@ -933,7 +933,7 @@
   <dimension ref="A2:G114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/public/Data Layanan.xlsx
+++ b/public/Data Layanan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yudapramana/Sites/ptsp.kemenagpessel/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4932D56-292F-944A-9925-33BD965E14B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBF8E45-EFF4-DB40-88F2-3741435CD091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{B64A1DCE-EE3A-194B-B1D2-B270E2BBB9D0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{B64A1DCE-EE3A-194B-B1D2-B270E2BBB9D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -933,7 +933,7 @@
   <dimension ref="A2:G114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>22</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>24</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>27</v>
@@ -1201,7 +1201,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>30</v>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>33</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>35</v>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>36</v>
@@ -1293,7 +1293,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>143</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>39</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>147</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>149</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>148</v>
@@ -1408,7 +1408,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>150</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>151</v>
@@ -1454,7 +1454,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>152</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>153</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>154</v>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>155</v>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>156</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>42</v>
@@ -1592,7 +1592,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>46</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>48</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>50</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>52</v>
@@ -1684,7 +1684,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>34.651612903225796</v>
+        <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>53</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>35.732661290322604</v>
+        <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>161</v>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>36.813709677419297</v>
+        <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>57</v>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>37.894758064516097</v>
+        <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>59</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>38.975806451612897</v>
+        <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>60</v>
@@ -1799,7 +1799,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>40.056854838709697</v>
+        <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>62</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>41.137903225806397</v>
+        <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>63</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>42.218951612903197</v>
+        <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>64</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>43.3</v>
+        <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>66</v>
@@ -1891,7 +1891,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>44.381048387096797</v>
+        <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>162</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>45.462096774193498</v>
+        <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>163</v>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>46.543145161290298</v>
+        <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>164</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>47.624193548387098</v>
+        <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>165</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>48.705241935483897</v>
+        <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>69</v>
@@ -2006,7 +2006,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>49.786290322580598</v>
+        <v>46</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>68</v>
@@ -2029,7 +2029,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>50.867338709677398</v>
+        <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>141</v>
@@ -2052,7 +2052,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>51.948387096774198</v>
+        <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>72</v>
@@ -2075,7 +2075,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>53.029435483870898</v>
+        <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>73</v>
@@ -2098,7 +2098,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>54.110483870967698</v>
+        <v>50</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>140</v>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>55.191532258064498</v>
+        <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>75</v>
@@ -2144,7 +2144,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>56.272580645161298</v>
+        <v>52</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>77</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>57.353629032257999</v>
+        <v>53</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>17</v>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>58.434677419354799</v>
+        <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>78</v>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>59.515725806451599</v>
+        <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>80</v>
@@ -2236,7 +2236,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <v>60.596774193548399</v>
+        <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>166</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>61.677822580645099</v>
+        <v>57</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>167</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>62.758870967741899</v>
+        <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>168</v>
@@ -2305,7 +2305,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>63.839919354838699</v>
+        <v>59</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>169</v>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>64.920967741935499</v>
+        <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>170</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
-        <v>66.002016129032199</v>
+        <v>61</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>171</v>
@@ -2374,7 +2374,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
-        <v>67.083064516128999</v>
+        <v>62</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>172</v>
@@ -2397,7 +2397,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
-        <v>68.164112903225799</v>
+        <v>63</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>81</v>
@@ -2420,7 +2420,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>69.245161290322599</v>
+        <v>64</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>83</v>
@@ -2443,7 +2443,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>70.3262096774193</v>
+        <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>84</v>
@@ -2466,7 +2466,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>71.4072580645161</v>
+        <v>66</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>86</v>
@@ -2489,7 +2489,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>72.4883064516129</v>
+        <v>67</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>87</v>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>73.5693548387097</v>
+        <v>68</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>88</v>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>74.6504032258064</v>
+        <v>69</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>89</v>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>75.7314516129032</v>
+        <v>70</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>90</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <v>76.8125</v>
+        <v>71</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>91</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
-        <v>77.8935483870967</v>
+        <v>72</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>92</v>
@@ -2627,7 +2627,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
-        <v>78.9745967741935</v>
+        <v>73</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>93</v>
@@ -2650,7 +2650,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
-        <v>80.0556451612903</v>
+        <v>74</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>95</v>
@@ -2673,7 +2673,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
-        <v>81.1366935483871</v>
+        <v>75</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>96</v>
@@ -2696,7 +2696,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
-        <v>82.217741935483801</v>
+        <v>76</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>97</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
-        <v>83.298790322580601</v>
+        <v>77</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>98</v>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
-        <v>84.379838709677401</v>
+        <v>78</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>99</v>
@@ -2765,7 +2765,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
-        <v>85.460887096774201</v>
+        <v>79</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>100</v>
@@ -2788,7 +2788,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
-        <v>86.541935483871001</v>
+        <v>80</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>101</v>
@@ -2811,7 +2811,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
-        <v>87.622983870967701</v>
+        <v>81</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>102</v>
@@ -2834,7 +2834,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
-        <v>88.704032258064501</v>
+        <v>82</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>103</v>
@@ -2857,7 +2857,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
-        <v>89.785080645161301</v>
+        <v>83</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>52</v>
@@ -2880,7 +2880,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
-        <v>90.866129032258002</v>
+        <v>84</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>104</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
-        <v>91.947177419354801</v>
+        <v>85</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>131</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
-        <v>93.028225806451601</v>
+        <v>86</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>132</v>
@@ -2949,7 +2949,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
-        <v>94.109274193548401</v>
+        <v>87</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>106</v>
@@ -2972,7 +2972,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
-        <v>95.190322580645102</v>
+        <v>88</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>109</v>
@@ -2995,7 +2995,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
-        <v>96.271370967741902</v>
+        <v>89</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>111</v>
@@ -3018,7 +3018,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
-        <v>97.352419354838702</v>
+        <v>90</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>112</v>
@@ -3041,7 +3041,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
-        <v>98.433467741935502</v>
+        <v>91</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>113</v>
@@ -3064,7 +3064,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
-        <v>99.514516129032202</v>
+        <v>92</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>115</v>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
-        <v>100.595564516129</v>
+        <v>93</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>116</v>
@@ -3110,7 +3110,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
-        <v>101.676612903226</v>
+        <v>94</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>117</v>
@@ -3133,7 +3133,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
-        <v>102.757661290323</v>
+        <v>95</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>52</v>
@@ -3156,7 +3156,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
-        <v>103.83870967742</v>
+        <v>96</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>120</v>
@@ -3179,7 +3179,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
-        <v>104.919758064516</v>
+        <v>97</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>122</v>
@@ -3202,7 +3202,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
-        <v>106.000806451613</v>
+        <v>98</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>123</v>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
-        <v>107.08185483871</v>
+        <v>99</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>124</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
-        <v>108.162903225807</v>
+        <v>100</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>125</v>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
-        <v>109.243951612903</v>
+        <v>101</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>127</v>
@@ -3294,7 +3294,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
-        <v>110.325</v>
+        <v>102</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>128</v>
@@ -3317,7 +3317,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
-        <v>111.406048387097</v>
+        <v>103</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>138</v>
@@ -3340,7 +3340,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
-        <v>112.487096774194</v>
+        <v>104</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>133</v>
@@ -3363,7 +3363,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
-        <v>113.56814516129</v>
+        <v>105</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>134</v>
@@ -3386,7 +3386,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
-        <v>114.649193548387</v>
+        <v>106</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>135</v>
@@ -3409,7 +3409,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
-        <v>115.730241935484</v>
+        <v>107</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>136</v>
@@ -3432,7 +3432,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
-        <v>116.811290322581</v>
+        <v>108</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>139</v>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
-        <v>117.892338709678</v>
+        <v>109</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>157</v>
@@ -3478,7 +3478,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
-        <v>118.973387096774</v>
+        <v>110</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>159</v>
@@ -3501,7 +3501,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
-        <v>120.054435483871</v>
+        <v>111</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>160</v>
@@ -3524,7 +3524,7 @@
     </row>
     <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
-        <v>121.135483870968</v>
+        <v>112</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>158</v>

--- a/public/Data Layanan.xlsx
+++ b/public/Data Layanan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yudapramana/Sites/ptsp.kemenagpessel/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sipintuv1\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBF8E45-EFF4-DB40-88F2-3741435CD091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EB1DED-EF3A-4B5F-BCE8-9E170C36BBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{B64A1DCE-EE3A-194B-B1D2-B270E2BBB9D0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B64A1DCE-EE3A-194B-B1D2-B270E2BBB9D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -932,21 +921,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE692555-352E-BC45-845A-68614F977634}">
   <dimension ref="A2:G114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113:XFD114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.19921875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.5" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.33203125" style="3" customWidth="1"/>
-    <col min="6" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.296875" style="3" customWidth="1"/>
+    <col min="6" max="7" width="13.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -969,7 +958,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -992,7 +981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1015,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1038,7 +1027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1061,7 +1050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1084,7 +1073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1107,7 +1096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1130,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1153,7 +1142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1176,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1199,7 +1188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1222,7 +1211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1245,7 +1234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1268,7 +1257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1291,7 +1280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1314,7 +1303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1337,7 +1326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -1360,7 +1349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1383,7 +1372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1406,7 +1395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -1429,7 +1418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -1452,7 +1441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -1475,7 +1464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -1498,7 +1487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -1521,7 +1510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -1544,7 +1533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -1567,7 +1556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -1590,7 +1579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -1613,7 +1602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -1636,7 +1625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -1659,7 +1648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -1682,7 +1671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -1705,7 +1694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -1728,7 +1717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -1751,7 +1740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -1774,7 +1763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -1797,7 +1786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -1820,7 +1809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -1843,7 +1832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -1866,7 +1855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -1889,7 +1878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -1912,7 +1901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -1935,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -1958,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -1981,7 +1970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -2004,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>46</v>
       </c>
@@ -2027,7 +2016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>47</v>
       </c>
@@ -2050,7 +2039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>48</v>
       </c>
@@ -2073,7 +2062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>49</v>
       </c>
@@ -2096,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>50</v>
       </c>
@@ -2119,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>51</v>
       </c>
@@ -2142,7 +2131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>52</v>
       </c>
@@ -2165,7 +2154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>53</v>
       </c>
@@ -2188,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>54</v>
       </c>
@@ -2211,7 +2200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>55</v>
       </c>
@@ -2234,7 +2223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>56</v>
       </c>
@@ -2257,7 +2246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>57</v>
       </c>
@@ -2280,7 +2269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>58</v>
       </c>
@@ -2303,7 +2292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>59</v>
       </c>
@@ -2326,7 +2315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>60</v>
       </c>
@@ -2349,7 +2338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>61</v>
       </c>
@@ -2372,7 +2361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>62</v>
       </c>
@@ -2395,7 +2384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>63</v>
       </c>
@@ -2418,7 +2407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>64</v>
       </c>
@@ -2441,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>65</v>
       </c>
@@ -2464,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>66</v>
       </c>
@@ -2487,7 +2476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>67</v>
       </c>
@@ -2510,7 +2499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>68</v>
       </c>
@@ -2533,7 +2522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>69</v>
       </c>
@@ -2556,7 +2545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>70</v>
       </c>
@@ -2579,7 +2568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>71</v>
       </c>
@@ -2602,7 +2591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>72</v>
       </c>
@@ -2625,7 +2614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>73</v>
       </c>
@@ -2648,7 +2637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>74</v>
       </c>
@@ -2671,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>75</v>
       </c>
@@ -2694,7 +2683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>76</v>
       </c>
@@ -2717,7 +2706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>77</v>
       </c>
@@ -2740,7 +2729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>78</v>
       </c>
@@ -2763,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>79</v>
       </c>
@@ -2786,7 +2775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>80</v>
       </c>
@@ -2809,7 +2798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>81</v>
       </c>
@@ -2832,7 +2821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>82</v>
       </c>
@@ -2855,7 +2844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>83</v>
       </c>
@@ -2878,7 +2867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>84</v>
       </c>
@@ -2901,7 +2890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>85</v>
       </c>
@@ -2924,7 +2913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>86</v>
       </c>
@@ -2947,7 +2936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>87</v>
       </c>
@@ -2970,7 +2959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>88</v>
       </c>
@@ -2993,7 +2982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>89</v>
       </c>
@@ -3016,7 +3005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>90</v>
       </c>
@@ -3039,7 +3028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>91</v>
       </c>
@@ -3062,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>92</v>
       </c>
@@ -3085,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>93</v>
       </c>
@@ -3108,7 +3097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>94</v>
       </c>
@@ -3131,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>95</v>
       </c>
@@ -3154,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>96</v>
       </c>
@@ -3177,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>97</v>
       </c>
@@ -3200,7 +3189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>98</v>
       </c>
@@ -3223,7 +3212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>99</v>
       </c>
@@ -3246,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>100</v>
       </c>
@@ -3269,7 +3258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>101</v>
       </c>
@@ -3292,7 +3281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>102</v>
       </c>
@@ -3315,7 +3304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>103</v>
       </c>
@@ -3338,7 +3327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>104</v>
       </c>
@@ -3361,7 +3350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>105</v>
       </c>
@@ -3384,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>106</v>
       </c>
@@ -3407,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>107</v>
       </c>
@@ -3430,7 +3419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>108</v>
       </c>
@@ -3453,7 +3442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>109</v>
       </c>
@@ -3476,7 +3465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>110</v>
       </c>
@@ -3499,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>111</v>
       </c>
@@ -3522,7 +3511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>112</v>
       </c>
